--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C9037-3A75-4A4D-88D1-F0BC222F84FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD8B015-0A1A-45E2-8037-8095B5E96E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="256">
   <si>
     <t>أسم الطالب</t>
   </si>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,8 +1215,8 @@
       <c r="E2">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
-        <v>253</v>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1233,10 +1233,10 @@
         <v>252</v>
       </c>
       <c r="E3">
-        <v>231052002</v>
-      </c>
-      <c r="F3" t="s">
-        <v>253</v>
+        <v>1234</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD8B015-0A1A-45E2-8037-8095B5E96E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43929989-94F8-47D2-A15F-E90830D3ADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6039,7 +6039,7 @@
         <v>252</v>
       </c>
       <c r="E243">
-        <v>232052014</v>
+        <v>987</v>
       </c>
       <c r="F243" t="s">
         <v>253</v>
